--- a/LOGS/3dc31b6a-137c-436b-add1-2fbe8291f93a/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/3dc31b6a-137c-436b-add1-2fbe8291f93a/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="49">
   <si>
     <t>line_item_0</t>
   </si>
@@ -753,9 +753,6 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
@@ -770,9 +767,6 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -787,9 +781,6 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -804,9 +795,6 @@
       <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -821,9 +809,6 @@
       <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6">
         <v>0</v>
       </c>
@@ -836,9 +821,6 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -855,9 +837,6 @@
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -872,9 +851,6 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
       <c r="C9">
         <v>54407</v>
       </c>
@@ -889,9 +865,6 @@
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
       <c r="C10">
         <v>51952</v>
       </c>
@@ -906,9 +879,6 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
       <c r="C11">
         <v>-4372</v>
       </c>
@@ -923,9 +893,6 @@
       <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
       <c r="C12">
         <v>1874</v>
       </c>
@@ -940,9 +907,6 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
       <c r="C13">
         <v>30270</v>
       </c>
@@ -955,9 +919,6 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14">
@@ -973,9 +934,6 @@
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
       </c>
       <c r="C15">
         <v>54716</v>
@@ -1021,9 +979,6 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
@@ -1038,9 +993,6 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -1053,9 +1005,6 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -1072,9 +1021,6 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5">
         <v>86727</v>
       </c>
@@ -1089,9 +1035,6 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6">
         <v>458691</v>
       </c>
@@ -1104,9 +1047,6 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
